--- a/Program/Other/URS會議審查紀錄/DbLayouts/L7-介接外部系統/LoanIfrs9Dp.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L7-介接外部系統/LoanIfrs9Dp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L7-介接外部系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173479DF-FC07-4DF4-8032-1964B38AA53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94CCB5C-AAD9-4F15-929B-BE146E9B15BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="562">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -2538,6 +2538,10 @@
   <si>
     <t>Usp_L7_LoanIfrs9Dp_Upd</t>
     <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/12/13長度由3改為4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3496,8 +3500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -4012,10 +4016,12 @@
         <v>32</v>
       </c>
       <c r="E25" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F25" s="13"/>
-      <c r="G25" s="75"/>
+      <c r="G25" s="75" t="s">
+        <v>561</v>
+      </c>
       <c r="H25" s="79" t="s">
         <v>544</v>
       </c>
@@ -5085,7 +5091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L7-介接外部系統/LoanIfrs9Dp.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L7-介接外部系統/LoanIfrs9Dp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L7-介接外部系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L7-介接外部系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94CCB5C-AAD9-4F15-929B-BE146E9B15BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089C165A-91A1-44A8-B7D1-DE7A8D564137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -333,12 +333,6 @@
   </si>
   <si>
     <t>貸放日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1=正常
-2=催收
-3=呆帳(新壽有部份轉呆的狀態，但若屬本項情形，狀態轉列為"呆帳")</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1311,12 +1305,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1=企業戶
-2=個人戶
-依現行代碼，唯企業戶與個人戶之分類需參考信用評等模型。自然人採用企金自然人評等模型者，應歸類為企業戶</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>上述發生日期時之應收利息(台幣)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1449,12 +1437,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>媒體檔排序用
-1=法拍完成資料檔
-2=逾期天數&gt;=90天且未在法拍完成資料檔中</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>會計科目</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1468,16 +1450,6 @@
   </si>
   <si>
     <t>ProdCode</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A=臺北市
-B=新北市
-C=桃園市
-D=台中市
-E=台南市
-F=高雄市
-G=其他(基隆市、新竹縣、新竹市、苗栗縣、彰化縣、南投縣、雲林縣、嘉義縣、嘉義市、屏東縣、宜蘭縣、花蓮縣、臺東縣、金門縣、澎湖縣、連江縣、南海島、釣魚臺</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -2397,12 +2369,6 @@
 正常戶本金-還款金額-轉銷呆帳金額
 stage3發生日期 當月底餘額</t>
     <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYYYMMDD 例：20100108
-一般  :繳息迄日+120
-協議件:60~62, MIN(撥款日期, 繳息迄日+120)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>以月底資料判斷，計算方式同本金回收金額
@@ -2541,6 +2507,40 @@
   </si>
   <si>
     <t>2021/12/13長度由3改為4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>媒體檔排序用
+1:法拍完成資料檔
+2:逾期天數&gt;=90天且未在法拍完成資料檔中</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:正常
+2:催收
+3:呆帳(新壽有部份轉呆的狀態，但若屬本項情形，狀態轉列為"呆帳")</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYYYMMDD 例：20100108
+一般：繳息迄日+120
+協議件：60~62, MIN(撥款日期, 繳息迄日+120)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:臺北市
+B:新北市
+C:桃園市
+D:台中市
+E:台南市
+F:高雄市
+G:其他(基隆市、新竹縣、新竹市、苗栗縣、彰化縣、南投縣、雲林縣、嘉義縣、嘉義市、屏東縣、宜蘭縣、花蓮縣、臺東縣、金門縣、澎湖縣、連江縣、南海島、釣魚臺</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:企業戶
+2:個人戶
+依現行代碼，唯企業戶與個人戶之分類需參考信用評等模型。自然人採用企金自然人評等模型者，應歸類為企業戶</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3500,8 +3500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -3522,10 +3522,10 @@
       </c>
       <c r="B1" s="83"/>
       <c r="C1" s="65" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="D1" s="66" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
@@ -3552,7 +3552,7 @@
       </c>
       <c r="B3" s="83"/>
       <c r="C3" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="16"/>
@@ -3631,7 +3631,7 @@
         <v>9</v>
       </c>
       <c r="H8" s="74" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3639,7 +3639,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>34</v>
@@ -3653,7 +3653,7 @@
       <c r="F9" s="13"/>
       <c r="G9" s="75"/>
       <c r="H9" s="79" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3675,7 +3675,7 @@
       <c r="F10" s="13"/>
       <c r="G10" s="75"/>
       <c r="H10" s="79" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -3697,7 +3697,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="75"/>
       <c r="H11" s="79" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -3719,7 +3719,7 @@
       <c r="F12" s="13"/>
       <c r="G12" s="75"/>
       <c r="H12" s="79" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -3741,7 +3741,7 @@
       <c r="F13" s="13"/>
       <c r="G13" s="75"/>
       <c r="H13" s="79" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
@@ -3749,10 +3749,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>32</v>
@@ -3762,10 +3762,10 @@
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="75" t="s">
-        <v>226</v>
+        <v>557</v>
       </c>
       <c r="H14" s="79" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.3">
@@ -3776,7 +3776,7 @@
         <v>53</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>33</v>
@@ -3787,7 +3787,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="75"/>
       <c r="H15" s="79" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
@@ -3795,7 +3795,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>54</v>
@@ -3808,10 +3808,10 @@
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="75" t="s">
-        <v>59</v>
+        <v>558</v>
       </c>
       <c r="H16" s="79" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -3833,7 +3833,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="75"/>
       <c r="H17" s="79" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -3855,7 +3855,7 @@
       <c r="F18" s="13"/>
       <c r="G18" s="75"/>
       <c r="H18" s="79" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -3866,7 +3866,7 @@
         <v>41</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>39</v>
@@ -3877,7 +3877,7 @@
       <c r="F19" s="17"/>
       <c r="G19" s="76"/>
       <c r="H19" s="79" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -3888,7 +3888,7 @@
         <v>44</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>32</v>
@@ -3900,10 +3900,10 @@
         <v>2</v>
       </c>
       <c r="G20" s="75" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H20" s="79" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -3914,7 +3914,7 @@
         <v>45</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>32</v>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="G21" s="75"/>
       <c r="H21" s="79" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -3935,10 +3935,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>32</v>
@@ -3951,7 +3951,7 @@
       </c>
       <c r="G22" s="75"/>
       <c r="H22" s="79" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -3959,10 +3959,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>32</v>
@@ -3975,7 +3975,7 @@
       </c>
       <c r="G23" s="75"/>
       <c r="H23" s="79" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -3986,7 +3986,7 @@
         <v>46</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>32</v>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="G24" s="75"/>
       <c r="H24" s="79" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="226.8" x14ac:dyDescent="0.3">
@@ -4010,7 +4010,7 @@
         <v>50</v>
       </c>
       <c r="C25" s="69" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>32</v>
@@ -4020,10 +4020,10 @@
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="75" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="H25" s="79" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -4034,7 +4034,7 @@
         <v>49</v>
       </c>
       <c r="C26" s="69" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>39</v>
@@ -4045,7 +4045,7 @@
       <c r="F26" s="13"/>
       <c r="G26" s="75"/>
       <c r="H26" s="79" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -4056,7 +4056,7 @@
         <v>48</v>
       </c>
       <c r="C27" s="69" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>39</v>
@@ -4066,10 +4066,10 @@
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="75" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H27" s="79" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -4080,7 +4080,7 @@
         <v>47</v>
       </c>
       <c r="C28" s="69" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>32</v>
@@ -4093,7 +4093,7 @@
       </c>
       <c r="G28" s="77"/>
       <c r="H28" s="79" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="214.2" x14ac:dyDescent="0.3">
@@ -4101,10 +4101,10 @@
         <v>21</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29" s="68" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>39</v>
@@ -4114,10 +4114,10 @@
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="77" t="s">
-        <v>533</v>
+        <v>559</v>
       </c>
       <c r="H29" s="79" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
@@ -4125,10 +4125,10 @@
         <v>22</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30" s="68" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>32</v>
@@ -4140,10 +4140,10 @@
         <v>4</v>
       </c>
       <c r="G30" s="77" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H30" s="79" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
@@ -4151,10 +4151,10 @@
         <v>23</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C31" s="68" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>32</v>
@@ -4166,10 +4166,10 @@
         <v>2</v>
       </c>
       <c r="G31" s="77" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="H31" s="79" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
@@ -4177,10 +4177,10 @@
         <v>24</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C32" s="68" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>32</v>
@@ -4192,10 +4192,10 @@
         <v>2</v>
       </c>
       <c r="G32" s="77" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H32" s="79" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
@@ -4203,10 +4203,10 @@
         <v>25</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C33" s="68" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>32</v>
@@ -4219,7 +4219,7 @@
       </c>
       <c r="G33" s="75"/>
       <c r="H33" s="79" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
@@ -4227,10 +4227,10 @@
         <v>26</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C34" s="68" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>32</v>
@@ -4242,10 +4242,10 @@
         <v>2</v>
       </c>
       <c r="G34" s="75" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H34" s="79" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
@@ -4253,10 +4253,10 @@
         <v>27</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C35" s="68" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>32</v>
@@ -4268,10 +4268,10 @@
         <v>2</v>
       </c>
       <c r="G35" s="75" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H35" s="79" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
@@ -4279,10 +4279,10 @@
         <v>28</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" s="68" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>32</v>
@@ -4294,10 +4294,10 @@
         <v>2</v>
       </c>
       <c r="G36" s="75" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H36" s="79" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
@@ -4305,10 +4305,10 @@
         <v>29</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C37" s="68" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>32</v>
@@ -4320,10 +4320,10 @@
         <v>2</v>
       </c>
       <c r="G37" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H37" s="79" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
@@ -4331,10 +4331,10 @@
         <v>30</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C38" s="68" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>32</v>
@@ -4346,10 +4346,10 @@
         <v>2</v>
       </c>
       <c r="G38" s="75" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H38" s="79" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
@@ -4357,10 +4357,10 @@
         <v>31</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C39" s="68" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>32</v>
@@ -4372,10 +4372,10 @@
         <v>2</v>
       </c>
       <c r="G39" s="75" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="H39" s="79" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
@@ -4383,10 +4383,10 @@
         <v>32</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C40" s="68" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>32</v>
@@ -4398,10 +4398,10 @@
         <v>2</v>
       </c>
       <c r="G40" s="75" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H40" s="79" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
@@ -4409,10 +4409,10 @@
         <v>33</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C41" s="68" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>32</v>
@@ -4424,10 +4424,10 @@
         <v>2</v>
       </c>
       <c r="G41" s="75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H41" s="79" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
@@ -4435,10 +4435,10 @@
         <v>34</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C42" s="68" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>32</v>
@@ -4450,10 +4450,10 @@
         <v>2</v>
       </c>
       <c r="G42" s="75" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H42" s="79" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
@@ -4461,10 +4461,10 @@
         <v>35</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C43" s="68" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>32</v>
@@ -4476,10 +4476,10 @@
         <v>2</v>
       </c>
       <c r="G43" s="75" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H43" s="79" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
@@ -4487,10 +4487,10 @@
         <v>36</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C44" s="68" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>32</v>
@@ -4502,10 +4502,10 @@
         <v>2</v>
       </c>
       <c r="G44" s="75" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="H44" s="79" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
@@ -4513,10 +4513,10 @@
         <v>37</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C45" s="68" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>32</v>
@@ -4528,10 +4528,10 @@
         <v>2</v>
       </c>
       <c r="G45" s="75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H45" s="79" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
@@ -4539,10 +4539,10 @@
         <v>38</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C46" s="68" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>32</v>
@@ -4554,10 +4554,10 @@
         <v>2</v>
       </c>
       <c r="G46" s="75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H46" s="79" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
@@ -4565,10 +4565,10 @@
         <v>39</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C47" s="68" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>32</v>
@@ -4580,10 +4580,10 @@
         <v>2</v>
       </c>
       <c r="G47" s="75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H47" s="79" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
@@ -4591,10 +4591,10 @@
         <v>40</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C48" s="68" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>32</v>
@@ -4606,10 +4606,10 @@
         <v>2</v>
       </c>
       <c r="G48" s="75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H48" s="79" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.3">
@@ -4620,7 +4620,7 @@
         <v>42</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>3</v>
@@ -4631,7 +4631,7 @@
       <c r="F49" s="13"/>
       <c r="G49" s="75"/>
       <c r="H49" s="79" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -4639,10 +4639,10 @@
         <v>42</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>3</v>
@@ -4652,10 +4652,10 @@
       </c>
       <c r="F50" s="13"/>
       <c r="G50" s="75" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H50" s="79" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="1" customFormat="1" ht="162" x14ac:dyDescent="0.3">
@@ -4663,10 +4663,10 @@
         <v>43</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>3</v>
@@ -4676,10 +4676,10 @@
       </c>
       <c r="F51" s="13"/>
       <c r="G51" s="75" t="s">
-        <v>231</v>
+        <v>560</v>
       </c>
       <c r="H51" s="79" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -4687,7 +4687,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>43</v>
@@ -4701,7 +4701,7 @@
       <c r="F52" s="13"/>
       <c r="G52" s="75"/>
       <c r="H52" s="79" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.3">
@@ -4709,10 +4709,10 @@
         <v>45</v>
       </c>
       <c r="B53" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53" s="12" t="s">
         <v>88</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>89</v>
       </c>
       <c r="D53" s="12" t="s">
         <v>32</v>
@@ -4722,10 +4722,10 @@
       </c>
       <c r="F53" s="13"/>
       <c r="G53" s="75" t="s">
-        <v>192</v>
+        <v>561</v>
       </c>
       <c r="H53" s="79" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -4733,10 +4733,10 @@
         <v>46</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>3</v>
@@ -4747,7 +4747,7 @@
       <c r="F54" s="13"/>
       <c r="G54" s="75"/>
       <c r="H54" s="79" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -5105,24 +5105,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="67" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="67" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="67" t="s">
         <v>208</v>
-      </c>
-      <c r="B1" s="67" t="s">
-        <v>209</v>
-      </c>
-      <c r="C1" s="67" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="64" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C2" s="64" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -5147,187 +5147,187 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="70" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="70" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="70" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="70" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="70" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="70" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="70" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="70" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="70" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="70" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="70" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="70" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="71" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="71" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="71" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="71" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="71" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="70" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="70" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="70" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="70" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="70" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="70" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="71" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="70" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="70" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="70" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="70" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="70" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="70" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="70" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="70" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="70" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="70" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="70" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="70" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="70" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
@@ -5365,177 +5365,177 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="72" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="73" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="73" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="73" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="73" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="73" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="73" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="73" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="73" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="73" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="73" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="72" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="73" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="73" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="72" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="72" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="72" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="72" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="72" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="72" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="72" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="72" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="72" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="72" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="72" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="72" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="72" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="72" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="72" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="72" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="72" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="72" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="72" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="72" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="72" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -5560,1337 +5560,1337 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="71" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="70" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="70" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="70" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="70" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="70" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="70" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="70" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="70" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="70" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="71" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="71" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="71" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="71" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="71" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="70" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="70" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="70" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="70" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="70" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="70" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="71" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="70" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="70" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="70" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="70" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="70" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="70" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="70" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="70" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="70" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="70" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="70" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="70" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="70" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="70" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="70" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="70" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="70" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="70" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="71" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="71" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="71" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="71" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="71" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="71" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="71" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="71" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="71" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="71" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="71" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="71" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="71" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="71" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="71" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="71" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="71" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="71" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="71" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="71" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="71" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="71" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="71" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="71" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="71" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="71" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="71" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="71" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="71" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="71" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="71" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="71" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="71" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="71" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="71" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="71" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="71" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="71" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="71" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="71" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="71" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="71" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="71" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="71" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="71" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="71" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="71" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="71" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="71" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="71" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="71" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="71" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="71" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="71" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="71" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="71" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="71" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="71" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="71" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="71" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="71" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="71" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="71" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="71" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="71" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="71" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="71" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="71" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="71" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="71" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="71" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="71" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="71" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="71" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="71" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="71" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="71" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="71" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="71" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="71" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="71" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="71" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="71" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="71" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="71" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="71" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="71" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="71" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="71" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="71" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="71" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="71" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="71" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="71" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="71" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="71" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="71" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="71" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="71" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="71" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="71" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="71" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" s="71" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="71" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="71" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="71" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="71" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="71" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="71" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="71" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="71" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="71" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" s="71" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" s="71" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="71" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="71" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="71" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" s="71" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="71" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" s="71" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="71" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="71" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" s="71" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="71" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" s="71" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="71" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" s="71" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="71" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" s="71" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" s="71" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" s="71" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" s="71" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" s="71" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" s="71" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" s="71" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" s="71" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" s="71" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" s="71" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" s="71" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" s="71" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" s="71" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" s="71" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" s="71" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" s="71" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" s="71" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" s="71" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" s="71" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" s="71" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" s="71" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" s="71" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" s="71" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" s="71" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" s="71" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" s="71" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" s="71" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" s="71" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" s="71" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" s="71" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" s="71" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" s="71" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" s="71" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" s="71" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" s="71" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" s="71" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" s="71" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" s="71" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" s="71" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" s="71" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" s="71" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" s="71" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" s="71" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" s="71" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" s="71" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" s="71" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" s="71" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" s="71" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" s="71" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" s="71" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" s="71" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" s="71" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" s="71" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" s="71" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" s="71" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" s="71" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" s="71" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" s="71" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" s="71" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" s="71" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" s="71" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" s="71" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" s="71" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" s="71" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" s="71" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" s="71" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" s="71" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" s="71" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" s="71" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" s="71" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" s="71" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" s="71" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" s="71" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" s="71" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" s="71" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" s="71" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" s="71" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" s="71" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" s="71" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" s="71" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" s="71" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" s="71" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" s="71" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" s="71" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" s="71" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" s="71" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255" s="71" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256" s="71" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" s="71" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" s="71" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" s="71" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" s="71" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" s="71" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" s="71" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" s="71" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" s="71" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" s="71" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" s="71" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" s="71" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -6915,267 +6915,267 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="71" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="70" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="70" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="70" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="70" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="70" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="70" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="71" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="71" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="71" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="71" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="71" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="70" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="70" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="70" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="70" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="70" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="70" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="71" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="70" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="70" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="70" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="70" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="70" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="70" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="70" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="70" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="70" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="70" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="70" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="70" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="70" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="70" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="70" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="70" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="70" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="70" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="71" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="71" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="71" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="71" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="71" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="71" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="71" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="71" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="71" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="71" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="71" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="71" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="71" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="71" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="71" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="71" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -7710,37 +7710,37 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21.6" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="23" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" s="24"/>
       <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" s="26"/>
     </row>
     <row r="4" spans="1:7" s="31" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="D4" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="E4" s="29" t="s">
         <v>104</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>105</v>
       </c>
       <c r="F4" s="30"/>
     </row>
@@ -7749,7 +7749,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="35"/>
@@ -7762,7 +7762,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="35"/>
@@ -7774,7 +7774,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="34"/>
       <c r="D7" s="35"/>
@@ -7787,7 +7787,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="35"/>
@@ -7800,11 +7800,11 @@
         <v>5</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E9" s="35"/>
       <c r="F9" s="30"/>
@@ -7814,13 +7814,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="D10" s="38" t="s">
         <v>113</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>114</v>
       </c>
       <c r="E10" s="40"/>
       <c r="F10" s="30"/>
@@ -7830,11 +7830,11 @@
         <v>7</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C11" s="39"/>
       <c r="D11" s="38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E11" s="40"/>
       <c r="F11" s="30"/>
@@ -7844,11 +7844,11 @@
         <v>8</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C12" s="39"/>
       <c r="D12" s="38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E12" s="40"/>
       <c r="F12" s="30"/>
@@ -7858,11 +7858,11 @@
         <v>9</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C13" s="39"/>
       <c r="D13" s="38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E13" s="40"/>
       <c r="F13" s="30"/>
@@ -7872,13 +7872,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="D14" s="38" t="s">
         <v>121</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>122</v>
       </c>
       <c r="E14" s="38"/>
       <c r="F14" s="42"/>
@@ -7889,11 +7889,11 @@
         <v>11</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C15" s="39"/>
       <c r="D15" s="38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E15" s="38"/>
       <c r="F15" s="42"/>
@@ -7904,11 +7904,11 @@
         <v>12</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C16" s="47"/>
       <c r="D16" s="38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E16" s="38"/>
       <c r="F16" s="48"/>
@@ -7918,11 +7918,11 @@
         <v>13</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C17" s="47"/>
       <c r="D17" s="38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E17" s="38"/>
       <c r="F17" s="48"/>
@@ -7932,11 +7932,11 @@
         <v>14</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C18" s="47"/>
       <c r="D18" s="38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E18" s="38"/>
       <c r="F18" s="48"/>
@@ -7946,7 +7946,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C19" s="39"/>
       <c r="D19" s="38"/>
@@ -7958,11 +7958,11 @@
         <v>16</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C20" s="39"/>
       <c r="D20" s="38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E20" s="38"/>
       <c r="F20" s="48"/>
@@ -7972,13 +7972,13 @@
         <v>17</v>
       </c>
       <c r="B21" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="C21" s="39" t="s">
-        <v>131</v>
-      </c>
       <c r="D21" s="38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E21" s="38"/>
       <c r="F21" s="48"/>
@@ -7988,11 +7988,11 @@
         <v>18</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C22" s="39"/>
       <c r="D22" s="38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E22" s="38"/>
       <c r="F22" s="48"/>
@@ -8003,19 +8003,19 @@
         <v>19</v>
       </c>
       <c r="B23" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="D23" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="E23" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="D23" s="52" t="s">
-        <v>182</v>
-      </c>
-      <c r="E23" s="53" t="s">
+      <c r="F23" s="30" t="s">
         <v>135</v>
-      </c>
-      <c r="F23" s="30" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="31" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
@@ -8023,15 +8023,15 @@
         <v>20</v>
       </c>
       <c r="B24" s="54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C24" s="55"/>
       <c r="D24" s="52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E24" s="52"/>
       <c r="F24" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="31" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -8039,17 +8039,17 @@
         <v>21</v>
       </c>
       <c r="B25" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="C25" s="55" t="s">
-        <v>141</v>
-      </c>
       <c r="D25" s="52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E25" s="52"/>
       <c r="F25" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="31" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
@@ -8057,17 +8057,17 @@
         <v>22</v>
       </c>
       <c r="B26" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="C26" s="55" t="s">
+      <c r="D26" s="52" t="s">
         <v>143</v>
-      </c>
-      <c r="D26" s="52" t="s">
-        <v>144</v>
       </c>
       <c r="E26" s="52"/>
       <c r="F26" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="31" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
@@ -8075,15 +8075,15 @@
         <v>23</v>
       </c>
       <c r="B27" s="53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C27" s="55"/>
       <c r="D27" s="52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E27" s="52"/>
       <c r="F27" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G27" s="37"/>
     </row>
@@ -8092,17 +8092,17 @@
         <v>24</v>
       </c>
       <c r="B28" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="C28" s="51" t="s">
-        <v>147</v>
-      </c>
       <c r="D28" s="52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E28" s="52"/>
       <c r="F28" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="31" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8110,17 +8110,17 @@
         <v>25</v>
       </c>
       <c r="B29" s="50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C29" s="51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D29" s="52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E29" s="52"/>
       <c r="F29" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="31" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8128,17 +8128,17 @@
         <v>26</v>
       </c>
       <c r="B30" s="53" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C30" s="51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D30" s="52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E30" s="52"/>
       <c r="F30" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="31" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
@@ -8146,17 +8146,17 @@
         <v>27</v>
       </c>
       <c r="B31" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="C31" s="51" t="s">
+      <c r="D31" s="52" t="s">
         <v>151</v>
-      </c>
-      <c r="D31" s="52" t="s">
-        <v>152</v>
       </c>
       <c r="E31" s="52"/>
       <c r="F31" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="31" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
@@ -8164,17 +8164,17 @@
         <v>28</v>
       </c>
       <c r="B32" s="53" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C32" s="51" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D32" s="52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E32" s="52"/>
       <c r="F32" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="31" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
@@ -8182,17 +8182,17 @@
         <v>29</v>
       </c>
       <c r="B33" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="C33" s="51" t="s">
-        <v>155</v>
-      </c>
       <c r="D33" s="52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E33" s="52"/>
       <c r="F33" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="31" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
@@ -8200,17 +8200,17 @@
         <v>30</v>
       </c>
       <c r="B34" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="D34" s="52" t="s">
         <v>156</v>
-      </c>
-      <c r="C34" s="51" t="s">
-        <v>155</v>
-      </c>
-      <c r="D34" s="52" t="s">
-        <v>157</v>
       </c>
       <c r="E34" s="52"/>
       <c r="F34" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="31" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
@@ -8218,17 +8218,17 @@
         <v>31</v>
       </c>
       <c r="B35" s="53" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C35" s="51" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D35" s="52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E35" s="52"/>
       <c r="F35" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="31" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
@@ -8236,17 +8236,17 @@
         <v>32</v>
       </c>
       <c r="B36" s="53" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C36" s="51" t="s">
         <v>55</v>
       </c>
       <c r="D36" s="52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E36" s="52"/>
       <c r="F36" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="31" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
@@ -8254,17 +8254,17 @@
         <v>33</v>
       </c>
       <c r="B37" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="C37" s="51" t="s">
-        <v>162</v>
-      </c>
       <c r="D37" s="52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E37" s="52"/>
       <c r="F37" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="31" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
@@ -8272,17 +8272,17 @@
         <v>34</v>
       </c>
       <c r="B38" s="53" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C38" s="51" t="s">
         <v>55</v>
       </c>
       <c r="D38" s="52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E38" s="52"/>
       <c r="F38" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="31" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
@@ -8290,17 +8290,17 @@
         <v>35</v>
       </c>
       <c r="B39" s="53" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C39" s="51" t="s">
         <v>55</v>
       </c>
       <c r="D39" s="52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E39" s="52"/>
       <c r="F39" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="31" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
@@ -8308,17 +8308,17 @@
         <v>36</v>
       </c>
       <c r="B40" s="53" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C40" s="51" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D40" s="52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E40" s="52"/>
       <c r="F40" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="31" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
@@ -8326,17 +8326,17 @@
         <v>37</v>
       </c>
       <c r="B41" s="53" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C41" s="51" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D41" s="52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E41" s="52"/>
       <c r="F41" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="31" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
@@ -8344,17 +8344,17 @@
         <v>38</v>
       </c>
       <c r="B42" s="53" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C42" s="51" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D42" s="52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E42" s="52"/>
       <c r="F42" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="31" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
@@ -8362,12 +8362,12 @@
         <v>39</v>
       </c>
       <c r="B43" s="46" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C43" s="47"/>
       <c r="D43" s="38"/>
       <c r="E43" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F43" s="30"/>
     </row>
@@ -8376,12 +8376,12 @@
         <v>40</v>
       </c>
       <c r="B44" s="56" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C44" s="47"/>
       <c r="D44" s="38"/>
       <c r="E44" s="57" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F44" s="30"/>
     </row>
@@ -8390,12 +8390,12 @@
         <v>41</v>
       </c>
       <c r="B45" s="56" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C45" s="47"/>
       <c r="D45" s="38"/>
       <c r="E45" s="58" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F45" s="30"/>
       <c r="G45" s="37"/>
@@ -8405,12 +8405,12 @@
         <v>42</v>
       </c>
       <c r="B46" s="56" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C46" s="47"/>
       <c r="D46" s="38"/>
       <c r="E46" s="38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F46" s="30"/>
     </row>
@@ -8419,14 +8419,14 @@
         <v>43</v>
       </c>
       <c r="B47" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="C47" s="59" t="s">
         <v>176</v>
-      </c>
-      <c r="C47" s="59" t="s">
-        <v>177</v>
       </c>
       <c r="D47" s="38"/>
       <c r="E47" s="60" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F47" s="30"/>
     </row>
@@ -8435,11 +8435,11 @@
         <v>44</v>
       </c>
       <c r="B48" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C48" s="61"/>
       <c r="D48" s="62" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E48" s="57"/>
       <c r="F48" s="30"/>
